--- a/src/OpenAPI.Cms.TestTools/example.xlsx
+++ b/src/OpenAPI.Cms.TestTools/example.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Dans\ExcelPublisher_Public\src\OpenAPI.Cms.TestTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A800A1A-AB6C-458A-9C06-267B9C7EC6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732E82C-5AD8-48CD-98BB-B6CD82E4C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3FBA689E-433E-47A2-BF8D-0E49C193B40C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FBA689E-433E-47A2-BF8D-0E49C193B40C}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy" sheetId="1" r:id="rId1"/>
     <sheet name="publish_config" sheetId="2" r:id="rId2"/>
+    <sheet name="Fairs" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="fair">strategy!$N$3:$O$100</definedName>
@@ -118,7 +119,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>是否发布数据的开关，只有当Yes或者True时才会抓取并发布该报告。可以引用其他页面上的Cell</t>
+          <t>是否发布数据的开关，只有当Yes或者True时才会抓取并发布该报告。值可以引用其他页面上的Cell</t>
         </r>
       </text>
     </comment>
@@ -137,6 +138,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{B7FED00F-6731-46B0-8CBC-9DA722E684CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SQL Server Instance</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{9653908D-9A63-4952-B263-21DF503E8E21}">
       <text>
         <r>
@@ -148,7 +164,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>lr x:</t>
+          <t>SQL Server Instance中的数据库名称</t>
         </r>
         <r>
           <rPr>
@@ -189,7 +205,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>网页种，最新报告延迟超过xxx毫秒时将会显示延迟 warning</t>
+          <t>网页中，最新报告延迟超过xxx毫秒时将会显示延迟 warning</t>
         </r>
       </text>
     </comment>
@@ -212,8 +228,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>is trading hour?</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -507,18 +545,24 @@
     <t>Max Stored Records</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>* 改变Publish的值会自动应用到每一次Publish，改变其他列后需要先Stop Sharing再Start Sharing才会应用新值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,8 +672,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +821,36 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1092,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95651A8A-155D-45A0-966C-D3DF6E72C384}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1199,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">NOW()-TODAY()</f>
-        <v>4.721898148272885E-2</v>
+        <v>0.63388506944465917</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1589,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA2A986-9E54-4A8F-AA31-AF4009C76338}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1607,11 +1695,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="9" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="E1" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1629,7 +1720,7 @@
       <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -1665,8 +1756,9 @@
       <c r="E3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="b">
-        <v>1</v>
+      <c r="F3" s="18" t="b">
+        <f ca="1">is_trading</f>
+        <v>0</v>
       </c>
       <c r="G3" s="12">
         <v>100</v>
@@ -1699,7 +1791,7 @@
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="12">
@@ -1726,4 +1818,8650 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1910EBD8-8D4B-408E-BE47-91E912664919}">
+  <dimension ref="A1:K784"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" cm="1">
+        <f t="array" ref="A1:C784">_xll.P_LoadReport(1000, publish_config!B4,publish_config!H4,publish_config!I4)</f>
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B1" s="24" t="str">
+        <v>fair</v>
+      </c>
+      <c r="C1" s="24">
+        <v>0</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B2">
+        <v>0.53072777452384945</v>
+      </c>
+      <c r="C2" t="str">
+        <v>162411.SZ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B3" t="str">
+        <v>werewr</v>
+      </c>
+      <c r="C3" t="str">
+        <v>160416.SZ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B4">
+        <v>1.3709733277444116</v>
+      </c>
+      <c r="C4" t="str">
+        <v>162719.SZ</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B5">
+        <v>0.73901181981719921</v>
+      </c>
+      <c r="C5" t="str">
+        <v>163208.SZ</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B6">
+        <v>1.2767966821708245</v>
+      </c>
+      <c r="C6" t="str">
+        <v>164906.SZ</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>501018.SH</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>161129.SZ</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <v>160723.SZ</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <v>160216.SZ</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B11">
+        <v>1.2756926125866963</v>
+      </c>
+      <c r="C11" t="str">
+        <v>159920.SZ</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B12">
+        <v>0.94427904538326501</v>
+      </c>
+      <c r="C12" t="str">
+        <v>510900.SH</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B13">
+        <v>1.4243673941616135</v>
+      </c>
+      <c r="C13" t="str">
+        <v>513050.SH</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B14">
+        <v>0.76659724605531099</v>
+      </c>
+      <c r="C14" t="str">
+        <v>513010.SH</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B15">
+        <v>0.79058793629236401</v>
+      </c>
+      <c r="C15" t="str">
+        <v>513060.SH</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B16">
+        <v>1.2166619905420477</v>
+      </c>
+      <c r="C16" t="str">
+        <v>513090.SH</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B17">
+        <v>0.7686375426427775</v>
+      </c>
+      <c r="C17" t="str">
+        <v>513130.SH</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B18">
+        <v>0.76989906664410834</v>
+      </c>
+      <c r="C18" t="str">
+        <v>513180.SH</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B19">
+        <v>0.64249372274712968</v>
+      </c>
+      <c r="C19" t="str">
+        <v>513330.SH</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B20">
+        <v>2.3630318631667482</v>
+      </c>
+      <c r="C20" t="str">
+        <v>513660.SH</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B21">
+        <v>1.9141470976157997</v>
+      </c>
+      <c r="C21" t="str">
+        <v>163417.SZ</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B22">
+        <v>2.8300795404451842</v>
+      </c>
+      <c r="C22" t="str">
+        <v>162605.SZ</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B23">
+        <v>3.3508934802056096</v>
+      </c>
+      <c r="C23" t="str">
+        <v>161005.SZ</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B24">
+        <v>0.98079729342530309</v>
+      </c>
+      <c r="C24" t="str">
+        <v>163402.SZ</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B25">
+        <v>2.0181670649083832</v>
+      </c>
+      <c r="C25" t="str">
+        <v>163406.SZ</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B26">
+        <v>2.1226703413221348</v>
+      </c>
+      <c r="C26" t="str">
+        <v>161903.SZ</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B27">
+        <v>3.7313195841862168</v>
+      </c>
+      <c r="C27" t="str">
+        <v>163415.SZ</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B28">
+        <v>3.3820335626766869</v>
+      </c>
+      <c r="C28" t="str">
+        <v>162703.SZ</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B29">
+        <v>1.2819916391099402</v>
+      </c>
+      <c r="C29" t="str">
+        <v>161725.SZ</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B30">
+        <v>3.3410173435800368</v>
+      </c>
+      <c r="C30" t="str">
+        <v>501057.SH</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B31">
+        <v>1.6153889860726431</v>
+      </c>
+      <c r="C31" t="str">
+        <v>161028.SZ</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="22">
+        <v>44517.614746458334</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B99" t="str">
+        <v>fair</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B100">
+        <v>0.53072777452384945</v>
+      </c>
+      <c r="C100" t="str">
+        <v>162411.SZ</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B101" t="str">
+        <v>werewr</v>
+      </c>
+      <c r="C101" t="str">
+        <v>160416.SZ</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B102">
+        <v>1.3709733277444116</v>
+      </c>
+      <c r="C102" t="str">
+        <v>162719.SZ</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B103">
+        <v>0.73901181981719921</v>
+      </c>
+      <c r="C103" t="str">
+        <v>163208.SZ</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B104">
+        <v>1.2767966821708245</v>
+      </c>
+      <c r="C104" t="str">
+        <v>164906.SZ</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="str">
+        <v>501018.SH</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="str">
+        <v>161129.SZ</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="str">
+        <v>160723.SZ</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="str">
+        <v>160216.SZ</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B109">
+        <v>1.2756926125866963</v>
+      </c>
+      <c r="C109" t="str">
+        <v>159920.SZ</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B110">
+        <v>0.94427904538326501</v>
+      </c>
+      <c r="C110" t="str">
+        <v>510900.SH</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B111">
+        <v>1.4243673941616135</v>
+      </c>
+      <c r="C111" t="str">
+        <v>513050.SH</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B112">
+        <v>0.76659724605531099</v>
+      </c>
+      <c r="C112" t="str">
+        <v>513010.SH</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B113">
+        <v>0.79058793629236401</v>
+      </c>
+      <c r="C113" t="str">
+        <v>513060.SH</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B114">
+        <v>1.2166619905420477</v>
+      </c>
+      <c r="C114" t="str">
+        <v>513090.SH</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B115">
+        <v>0.7686375426427775</v>
+      </c>
+      <c r="C115" t="str">
+        <v>513130.SH</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B116">
+        <v>0.76989906664410834</v>
+      </c>
+      <c r="C116" t="str">
+        <v>513180.SH</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B117">
+        <v>0.64249372274712968</v>
+      </c>
+      <c r="C117" t="str">
+        <v>513330.SH</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B118">
+        <v>2.3630318631667482</v>
+      </c>
+      <c r="C118" t="str">
+        <v>513660.SH</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B119">
+        <v>1.9141470976157997</v>
+      </c>
+      <c r="C119" t="str">
+        <v>163417.SZ</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B120">
+        <v>2.8300795404451842</v>
+      </c>
+      <c r="C120" t="str">
+        <v>162605.SZ</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B121">
+        <v>3.3508934802056096</v>
+      </c>
+      <c r="C121" t="str">
+        <v>161005.SZ</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B122">
+        <v>0.98079729342530309</v>
+      </c>
+      <c r="C122" t="str">
+        <v>163402.SZ</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B123">
+        <v>2.0181670649083832</v>
+      </c>
+      <c r="C123" t="str">
+        <v>163406.SZ</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B124">
+        <v>2.1226703413221348</v>
+      </c>
+      <c r="C124" t="str">
+        <v>161903.SZ</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B125">
+        <v>3.7313195841862168</v>
+      </c>
+      <c r="C125" t="str">
+        <v>163415.SZ</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B126">
+        <v>3.3820335626766869</v>
+      </c>
+      <c r="C126" t="str">
+        <v>162703.SZ</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B127">
+        <v>1.2819916391099402</v>
+      </c>
+      <c r="C127" t="str">
+        <v>161725.SZ</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B128">
+        <v>3.3410173435800368</v>
+      </c>
+      <c r="C128" t="str">
+        <v>501057.SH</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B129">
+        <v>1.6153889860726431</v>
+      </c>
+      <c r="C129" t="str">
+        <v>161028.SZ</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="22">
+        <v>44517.614734872688</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B197" t="str">
+        <v>fair</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B198">
+        <v>0.53072777452384945</v>
+      </c>
+      <c r="C198" t="str">
+        <v>162411.SZ</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B199" t="str">
+        <v>werewr</v>
+      </c>
+      <c r="C199" t="str">
+        <v>160416.SZ</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B200">
+        <v>1.3709733277444116</v>
+      </c>
+      <c r="C200" t="str">
+        <v>162719.SZ</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B201">
+        <v>0.73901181981719921</v>
+      </c>
+      <c r="C201" t="str">
+        <v>163208.SZ</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B202">
+        <v>1.2767966821708245</v>
+      </c>
+      <c r="C202" t="str">
+        <v>164906.SZ</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203" t="str">
+        <v>501018.SH</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204" t="str">
+        <v>161129.SZ</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" t="str">
+        <v>160723.SZ</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="str">
+        <v>160216.SZ</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B207">
+        <v>1.2756926125866963</v>
+      </c>
+      <c r="C207" t="str">
+        <v>159920.SZ</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B208">
+        <v>0.94427904538326501</v>
+      </c>
+      <c r="C208" t="str">
+        <v>510900.SH</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B209">
+        <v>1.4243673941616135</v>
+      </c>
+      <c r="C209" t="str">
+        <v>513050.SH</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B210">
+        <v>0.76659724605531099</v>
+      </c>
+      <c r="C210" t="str">
+        <v>513010.SH</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B211">
+        <v>0.79058793629236401</v>
+      </c>
+      <c r="C211" t="str">
+        <v>513060.SH</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B212">
+        <v>1.2166619905420477</v>
+      </c>
+      <c r="C212" t="str">
+        <v>513090.SH</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B213">
+        <v>0.7686375426427775</v>
+      </c>
+      <c r="C213" t="str">
+        <v>513130.SH</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B214">
+        <v>0.76989906664410834</v>
+      </c>
+      <c r="C214" t="str">
+        <v>513180.SH</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B215">
+        <v>0.64249372274712968</v>
+      </c>
+      <c r="C215" t="str">
+        <v>513330.SH</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B216">
+        <v>2.3630318631667482</v>
+      </c>
+      <c r="C216" t="str">
+        <v>513660.SH</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B217">
+        <v>1.9141470976157997</v>
+      </c>
+      <c r="C217" t="str">
+        <v>163417.SZ</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B218">
+        <v>2.8300795404451842</v>
+      </c>
+      <c r="C218" t="str">
+        <v>162605.SZ</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B219">
+        <v>3.3508934802056096</v>
+      </c>
+      <c r="C219" t="str">
+        <v>161005.SZ</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B220">
+        <v>0.98079729342530309</v>
+      </c>
+      <c r="C220" t="str">
+        <v>163402.SZ</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B221">
+        <v>2.0181670649083832</v>
+      </c>
+      <c r="C221" t="str">
+        <v>163406.SZ</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B222">
+        <v>2.1226703413221348</v>
+      </c>
+      <c r="C222" t="str">
+        <v>161903.SZ</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B223">
+        <v>3.7313195841862168</v>
+      </c>
+      <c r="C223" t="str">
+        <v>163415.SZ</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B224">
+        <v>3.3820335626766869</v>
+      </c>
+      <c r="C224" t="str">
+        <v>162703.SZ</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B225">
+        <v>1.2819916391099402</v>
+      </c>
+      <c r="C225" t="str">
+        <v>161725.SZ</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B226">
+        <v>3.3410173435800368</v>
+      </c>
+      <c r="C226" t="str">
+        <v>501057.SH</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B227">
+        <v>1.6153889860726431</v>
+      </c>
+      <c r="C227" t="str">
+        <v>161028.SZ</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="22">
+        <v>44517.614723159721</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B295" t="str">
+        <v>fair</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B296">
+        <v>0.53072777452384945</v>
+      </c>
+      <c r="C296" t="str">
+        <v>162411.SZ</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B297" t="str">
+        <v>werewr</v>
+      </c>
+      <c r="C297" t="str">
+        <v>160416.SZ</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B298">
+        <v>1.3709733277444116</v>
+      </c>
+      <c r="C298" t="str">
+        <v>162719.SZ</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B299">
+        <v>0.73901181981719921</v>
+      </c>
+      <c r="C299" t="str">
+        <v>163208.SZ</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B300">
+        <v>1.2767966821708245</v>
+      </c>
+      <c r="C300" t="str">
+        <v>164906.SZ</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301" t="str">
+        <v>501018.SH</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302" t="str">
+        <v>161129.SZ</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303" t="str">
+        <v>160723.SZ</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304" t="str">
+        <v>160216.SZ</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B305">
+        <v>1.2756926125866963</v>
+      </c>
+      <c r="C305" t="str">
+        <v>159920.SZ</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B306">
+        <v>0.94427904538326501</v>
+      </c>
+      <c r="C306" t="str">
+        <v>510900.SH</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B307">
+        <v>1.4243673941616135</v>
+      </c>
+      <c r="C307" t="str">
+        <v>513050.SH</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B308">
+        <v>0.76659724605531099</v>
+      </c>
+      <c r="C308" t="str">
+        <v>513010.SH</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B309">
+        <v>0.79058793629236401</v>
+      </c>
+      <c r="C309" t="str">
+        <v>513060.SH</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B310">
+        <v>1.2166619905420477</v>
+      </c>
+      <c r="C310" t="str">
+        <v>513090.SH</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B311">
+        <v>0.7686375426427775</v>
+      </c>
+      <c r="C311" t="str">
+        <v>513130.SH</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B312">
+        <v>0.76989906664410834</v>
+      </c>
+      <c r="C312" t="str">
+        <v>513180.SH</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B313">
+        <v>0.64249372274712968</v>
+      </c>
+      <c r="C313" t="str">
+        <v>513330.SH</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B314">
+        <v>2.3630318631667482</v>
+      </c>
+      <c r="C314" t="str">
+        <v>513660.SH</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B315">
+        <v>1.9141470976157997</v>
+      </c>
+      <c r="C315" t="str">
+        <v>163417.SZ</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B316">
+        <v>2.8300795404451842</v>
+      </c>
+      <c r="C316" t="str">
+        <v>162605.SZ</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B317">
+        <v>3.3508934802056096</v>
+      </c>
+      <c r="C317" t="str">
+        <v>161005.SZ</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B318">
+        <v>0.98079729342530309</v>
+      </c>
+      <c r="C318" t="str">
+        <v>163402.SZ</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B319">
+        <v>2.0181670649083832</v>
+      </c>
+      <c r="C319" t="str">
+        <v>163406.SZ</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B320">
+        <v>2.1226703413221348</v>
+      </c>
+      <c r="C320" t="str">
+        <v>161903.SZ</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B321">
+        <v>3.7313195841862168</v>
+      </c>
+      <c r="C321" t="str">
+        <v>163415.SZ</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B322">
+        <v>3.3820335626766869</v>
+      </c>
+      <c r="C322" t="str">
+        <v>162703.SZ</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B323">
+        <v>1.2819916391099402</v>
+      </c>
+      <c r="C323" t="str">
+        <v>161725.SZ</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B324">
+        <v>3.3410173435800368</v>
+      </c>
+      <c r="C324" t="str">
+        <v>501057.SH</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B325">
+        <v>1.6153889860726431</v>
+      </c>
+      <c r="C325" t="str">
+        <v>161028.SZ</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="22">
+        <v>44517.614711527778</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B393" t="str">
+        <v>fair</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B394">
+        <v>0.53072777452384945</v>
+      </c>
+      <c r="C394" t="str">
+        <v>162411.SZ</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B395" t="str">
+        <v>werewr</v>
+      </c>
+      <c r="C395" t="str">
+        <v>160416.SZ</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B396">
+        <v>1.3709733277444116</v>
+      </c>
+      <c r="C396" t="str">
+        <v>162719.SZ</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B397">
+        <v>0.73901181981719921</v>
+      </c>
+      <c r="C397" t="str">
+        <v>163208.SZ</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B398">
+        <v>1.2767966821708245</v>
+      </c>
+      <c r="C398" t="str">
+        <v>164906.SZ</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399" t="str">
+        <v>501018.SH</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400" t="str">
+        <v>161129.SZ</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401" t="str">
+        <v>160723.SZ</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
+      <c r="C402" t="str">
+        <v>160216.SZ</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B403">
+        <v>1.2756926125866963</v>
+      </c>
+      <c r="C403" t="str">
+        <v>159920.SZ</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B404">
+        <v>0.94427904538326501</v>
+      </c>
+      <c r="C404" t="str">
+        <v>510900.SH</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B405">
+        <v>1.4243673941616135</v>
+      </c>
+      <c r="C405" t="str">
+        <v>513050.SH</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B406">
+        <v>0.76659724605531099</v>
+      </c>
+      <c r="C406" t="str">
+        <v>513010.SH</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B407">
+        <v>0.79058793629236401</v>
+      </c>
+      <c r="C407" t="str">
+        <v>513060.SH</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B408">
+        <v>1.2166619905420477</v>
+      </c>
+      <c r="C408" t="str">
+        <v>513090.SH</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B409">
+        <v>0.7686375426427775</v>
+      </c>
+      <c r="C409" t="str">
+        <v>513130.SH</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B410">
+        <v>0.76989906664410834</v>
+      </c>
+      <c r="C410" t="str">
+        <v>513180.SH</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B411">
+        <v>0.64249372274712968</v>
+      </c>
+      <c r="C411" t="str">
+        <v>513330.SH</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B412">
+        <v>2.3630318631667482</v>
+      </c>
+      <c r="C412" t="str">
+        <v>513660.SH</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B413">
+        <v>1.9141470976157997</v>
+      </c>
+      <c r="C413" t="str">
+        <v>163417.SZ</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B414">
+        <v>2.8300795404451842</v>
+      </c>
+      <c r="C414" t="str">
+        <v>162605.SZ</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B415">
+        <v>3.3508934802056096</v>
+      </c>
+      <c r="C415" t="str">
+        <v>161005.SZ</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B416">
+        <v>0.98079729342530309</v>
+      </c>
+      <c r="C416" t="str">
+        <v>163402.SZ</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B417">
+        <v>2.0181670649083832</v>
+      </c>
+      <c r="C417" t="str">
+        <v>163406.SZ</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B418">
+        <v>2.1226703413221348</v>
+      </c>
+      <c r="C418" t="str">
+        <v>161903.SZ</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B419">
+        <v>3.7313195841862168</v>
+      </c>
+      <c r="C419" t="str">
+        <v>163415.SZ</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B420">
+        <v>3.3820335626766869</v>
+      </c>
+      <c r="C420" t="str">
+        <v>162703.SZ</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B421">
+        <v>1.2819916391099402</v>
+      </c>
+      <c r="C421" t="str">
+        <v>161725.SZ</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B422">
+        <v>3.3410173435800368</v>
+      </c>
+      <c r="C422" t="str">
+        <v>501057.SH</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B423">
+        <v>1.6153889860726431</v>
+      </c>
+      <c r="C423" t="str">
+        <v>161028.SZ</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="22">
+        <v>44517.614699768521</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B491" t="str">
+        <v>fair</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B492">
+        <v>0.53072777452384945</v>
+      </c>
+      <c r="C492" t="str">
+        <v>162411.SZ</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B493" t="str">
+        <v>werewr</v>
+      </c>
+      <c r="C493" t="str">
+        <v>160416.SZ</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B494">
+        <v>1.3709733277444116</v>
+      </c>
+      <c r="C494" t="str">
+        <v>162719.SZ</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B495">
+        <v>0.73901181981719921</v>
+      </c>
+      <c r="C495" t="str">
+        <v>163208.SZ</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B496">
+        <v>1.2767966821708245</v>
+      </c>
+      <c r="C496" t="str">
+        <v>164906.SZ</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497" t="str">
+        <v>501018.SH</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+      <c r="C498" t="str">
+        <v>161129.SZ</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499" t="str">
+        <v>160723.SZ</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+      <c r="C500" t="str">
+        <v>160216.SZ</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B501">
+        <v>1.2756926125866963</v>
+      </c>
+      <c r="C501" t="str">
+        <v>159920.SZ</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B502">
+        <v>0.94427904538326501</v>
+      </c>
+      <c r="C502" t="str">
+        <v>510900.SH</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B503">
+        <v>1.4243673941616135</v>
+      </c>
+      <c r="C503" t="str">
+        <v>513050.SH</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B504">
+        <v>0.76659724605531099</v>
+      </c>
+      <c r="C504" t="str">
+        <v>513010.SH</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B505">
+        <v>0.79058793629236401</v>
+      </c>
+      <c r="C505" t="str">
+        <v>513060.SH</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B506">
+        <v>1.2166619905420477</v>
+      </c>
+      <c r="C506" t="str">
+        <v>513090.SH</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B507">
+        <v>0.7686375426427775</v>
+      </c>
+      <c r="C507" t="str">
+        <v>513130.SH</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B508">
+        <v>0.76989906664410834</v>
+      </c>
+      <c r="C508" t="str">
+        <v>513180.SH</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B509">
+        <v>0.64249372274712968</v>
+      </c>
+      <c r="C509" t="str">
+        <v>513330.SH</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B510">
+        <v>2.3630318631667482</v>
+      </c>
+      <c r="C510" t="str">
+        <v>513660.SH</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B511">
+        <v>1.9141470976157997</v>
+      </c>
+      <c r="C511" t="str">
+        <v>163417.SZ</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B512">
+        <v>2.8300795404451842</v>
+      </c>
+      <c r="C512" t="str">
+        <v>162605.SZ</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B513">
+        <v>3.3508934802056096</v>
+      </c>
+      <c r="C513" t="str">
+        <v>161005.SZ</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B514">
+        <v>0.98079729342530309</v>
+      </c>
+      <c r="C514" t="str">
+        <v>163402.SZ</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B515">
+        <v>2.0181670649083832</v>
+      </c>
+      <c r="C515" t="str">
+        <v>163406.SZ</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B516">
+        <v>2.1226703413221348</v>
+      </c>
+      <c r="C516" t="str">
+        <v>161903.SZ</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B517">
+        <v>3.7313195841862168</v>
+      </c>
+      <c r="C517" t="str">
+        <v>163415.SZ</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B518">
+        <v>3.3820335626766869</v>
+      </c>
+      <c r="C518" t="str">
+        <v>162703.SZ</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B519">
+        <v>1.2819916391099402</v>
+      </c>
+      <c r="C519" t="str">
+        <v>161725.SZ</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B520">
+        <v>3.3410173435800368</v>
+      </c>
+      <c r="C520" t="str">
+        <v>501057.SH</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B521">
+        <v>1.6153889860726431</v>
+      </c>
+      <c r="C521" t="str">
+        <v>161028.SZ</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B526">
+        <v>0</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B528">
+        <v>0</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
+      </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B534">
+        <v>0</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B536">
+        <v>0</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B542">
+        <v>0</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+      <c r="C547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B550">
+        <v>0</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B552">
+        <v>0</v>
+      </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+      <c r="C553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B556">
+        <v>0</v>
+      </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+      <c r="C557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B558">
+        <v>0</v>
+      </c>
+      <c r="C558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B566">
+        <v>0</v>
+      </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+      <c r="C571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B572">
+        <v>0</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+      <c r="C574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B576">
+        <v>0</v>
+      </c>
+      <c r="C576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B578">
+        <v>0</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+      <c r="C579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B580">
+        <v>0</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+      <c r="C581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B582">
+        <v>0</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B583">
+        <v>0</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B584">
+        <v>0</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+      <c r="C585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B586">
+        <v>0</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="22">
+        <v>44517.61468914352</v>
+      </c>
+      <c r="B588">
+        <v>0</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B589" t="str">
+        <v>fair</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B590">
+        <v>0.53072777452384945</v>
+      </c>
+      <c r="C590" t="str">
+        <v>162411.SZ</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B591" t="str">
+        <v>werewr</v>
+      </c>
+      <c r="C591" t="str">
+        <v>160416.SZ</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B592">
+        <v>1.3709733277444116</v>
+      </c>
+      <c r="C592" t="str">
+        <v>162719.SZ</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B593">
+        <v>0.73901181981719921</v>
+      </c>
+      <c r="C593" t="str">
+        <v>163208.SZ</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B594">
+        <v>1.2767966821708245</v>
+      </c>
+      <c r="C594" t="str">
+        <v>164906.SZ</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595" t="str">
+        <v>501018.SH</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B596">
+        <v>0</v>
+      </c>
+      <c r="C596" t="str">
+        <v>161129.SZ</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+      <c r="C597" t="str">
+        <v>160723.SZ</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B598">
+        <v>0</v>
+      </c>
+      <c r="C598" t="str">
+        <v>160216.SZ</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B599">
+        <v>1.2756926125866963</v>
+      </c>
+      <c r="C599" t="str">
+        <v>159920.SZ</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B600">
+        <v>0.94427904538326501</v>
+      </c>
+      <c r="C600" t="str">
+        <v>510900.SH</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B601">
+        <v>1.4243673941616135</v>
+      </c>
+      <c r="C601" t="str">
+        <v>513050.SH</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B602">
+        <v>0.76659724605531099</v>
+      </c>
+      <c r="C602" t="str">
+        <v>513010.SH</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B603">
+        <v>0.79058793629236401</v>
+      </c>
+      <c r="C603" t="str">
+        <v>513060.SH</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B604">
+        <v>1.2166619905420477</v>
+      </c>
+      <c r="C604" t="str">
+        <v>513090.SH</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B605">
+        <v>0.7686375426427775</v>
+      </c>
+      <c r="C605" t="str">
+        <v>513130.SH</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B606">
+        <v>0.76989906664410834</v>
+      </c>
+      <c r="C606" t="str">
+        <v>513180.SH</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B607">
+        <v>0.64249372274712968</v>
+      </c>
+      <c r="C607" t="str">
+        <v>513330.SH</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B608">
+        <v>2.3630318631667482</v>
+      </c>
+      <c r="C608" t="str">
+        <v>513660.SH</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B609">
+        <v>1.9141470976157997</v>
+      </c>
+      <c r="C609" t="str">
+        <v>163417.SZ</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B610">
+        <v>2.8300795404451842</v>
+      </c>
+      <c r="C610" t="str">
+        <v>162605.SZ</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B611">
+        <v>3.3508934802056096</v>
+      </c>
+      <c r="C611" t="str">
+        <v>161005.SZ</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B612">
+        <v>0.98079729342530309</v>
+      </c>
+      <c r="C612" t="str">
+        <v>163402.SZ</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B613">
+        <v>2.0181670649083832</v>
+      </c>
+      <c r="C613" t="str">
+        <v>163406.SZ</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B614">
+        <v>2.1226703413221348</v>
+      </c>
+      <c r="C614" t="str">
+        <v>161903.SZ</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B615">
+        <v>3.7313195841862168</v>
+      </c>
+      <c r="C615" t="str">
+        <v>163415.SZ</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B616">
+        <v>3.3820335626766869</v>
+      </c>
+      <c r="C616" t="str">
+        <v>162703.SZ</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B617">
+        <v>1.2819916391099402</v>
+      </c>
+      <c r="C617" t="str">
+        <v>161725.SZ</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B618">
+        <v>3.3410173435800368</v>
+      </c>
+      <c r="C618" t="str">
+        <v>501057.SH</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B619">
+        <v>1.6153889860726431</v>
+      </c>
+      <c r="C619" t="str">
+        <v>161028.SZ</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B620">
+        <v>0</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B621">
+        <v>0</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B622">
+        <v>0</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B625">
+        <v>0</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B626">
+        <v>0</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B627">
+        <v>0</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B628">
+        <v>0</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B629">
+        <v>0</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B630">
+        <v>0</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B631">
+        <v>0</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B632">
+        <v>0</v>
+      </c>
+      <c r="C632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B633">
+        <v>0</v>
+      </c>
+      <c r="C633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B634">
+        <v>0</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B635">
+        <v>0</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B636">
+        <v>0</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B637">
+        <v>0</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B638">
+        <v>0</v>
+      </c>
+      <c r="C638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B639">
+        <v>0</v>
+      </c>
+      <c r="C639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B640">
+        <v>0</v>
+      </c>
+      <c r="C640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B641">
+        <v>0</v>
+      </c>
+      <c r="C641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B642">
+        <v>0</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B643">
+        <v>0</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B644">
+        <v>0</v>
+      </c>
+      <c r="C644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B645">
+        <v>0</v>
+      </c>
+      <c r="C645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B646">
+        <v>0</v>
+      </c>
+      <c r="C646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B647">
+        <v>0</v>
+      </c>
+      <c r="C647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B648">
+        <v>0</v>
+      </c>
+      <c r="C648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B649">
+        <v>0</v>
+      </c>
+      <c r="C649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B650">
+        <v>0</v>
+      </c>
+      <c r="C650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B651">
+        <v>0</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B652">
+        <v>0</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B653">
+        <v>0</v>
+      </c>
+      <c r="C653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B654">
+        <v>0</v>
+      </c>
+      <c r="C654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B655">
+        <v>0</v>
+      </c>
+      <c r="C655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B656">
+        <v>0</v>
+      </c>
+      <c r="C656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B657">
+        <v>0</v>
+      </c>
+      <c r="C657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B658">
+        <v>0</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B659">
+        <v>0</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B660">
+        <v>0</v>
+      </c>
+      <c r="C660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B661">
+        <v>0</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B662">
+        <v>0</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B663">
+        <v>0</v>
+      </c>
+      <c r="C663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B664">
+        <v>0</v>
+      </c>
+      <c r="C664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B665">
+        <v>0</v>
+      </c>
+      <c r="C665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B666">
+        <v>0</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B667">
+        <v>0</v>
+      </c>
+      <c r="C667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B668">
+        <v>0</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B669">
+        <v>0</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B670">
+        <v>0</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B671">
+        <v>0</v>
+      </c>
+      <c r="C671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B672">
+        <v>0</v>
+      </c>
+      <c r="C672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B673">
+        <v>0</v>
+      </c>
+      <c r="C673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B674">
+        <v>0</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B675">
+        <v>0</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B676">
+        <v>0</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B677">
+        <v>0</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B678">
+        <v>0</v>
+      </c>
+      <c r="C678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B679">
+        <v>0</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B680">
+        <v>0</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B681">
+        <v>0</v>
+      </c>
+      <c r="C681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B682">
+        <v>0</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B683">
+        <v>0</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B684">
+        <v>0</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B685">
+        <v>0</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="22">
+        <v>44517.614676134261</v>
+      </c>
+      <c r="B686">
+        <v>0</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B687" t="str">
+        <v>fair</v>
+      </c>
+      <c r="C687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B688">
+        <v>0.53072777452384945</v>
+      </c>
+      <c r="C688" t="str">
+        <v>162411.SZ</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B689" t="str">
+        <v>werewr</v>
+      </c>
+      <c r="C689" t="str">
+        <v>160416.SZ</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B690">
+        <v>1.3709733277444116</v>
+      </c>
+      <c r="C690" t="str">
+        <v>162719.SZ</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B691">
+        <v>0.73901181981719921</v>
+      </c>
+      <c r="C691" t="str">
+        <v>163208.SZ</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B692">
+        <v>1.2767966821708245</v>
+      </c>
+      <c r="C692" t="str">
+        <v>164906.SZ</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B693">
+        <v>0</v>
+      </c>
+      <c r="C693" t="str">
+        <v>501018.SH</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B694">
+        <v>0</v>
+      </c>
+      <c r="C694" t="str">
+        <v>161129.SZ</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B695">
+        <v>0</v>
+      </c>
+      <c r="C695" t="str">
+        <v>160723.SZ</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B696">
+        <v>0</v>
+      </c>
+      <c r="C696" t="str">
+        <v>160216.SZ</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B697">
+        <v>1.2756926125866963</v>
+      </c>
+      <c r="C697" t="str">
+        <v>159920.SZ</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B698">
+        <v>0.94427904538326501</v>
+      </c>
+      <c r="C698" t="str">
+        <v>510900.SH</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B699">
+        <v>1.4243673941616135</v>
+      </c>
+      <c r="C699" t="str">
+        <v>513050.SH</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B700">
+        <v>0.76659724605531099</v>
+      </c>
+      <c r="C700" t="str">
+        <v>513010.SH</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B701">
+        <v>0.79058793629236401</v>
+      </c>
+      <c r="C701" t="str">
+        <v>513060.SH</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B702">
+        <v>1.2166619905420477</v>
+      </c>
+      <c r="C702" t="str">
+        <v>513090.SH</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B703">
+        <v>0.7686375426427775</v>
+      </c>
+      <c r="C703" t="str">
+        <v>513130.SH</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B704">
+        <v>0.76989906664410834</v>
+      </c>
+      <c r="C704" t="str">
+        <v>513180.SH</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B705">
+        <v>0.64249372274712968</v>
+      </c>
+      <c r="C705" t="str">
+        <v>513330.SH</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B706">
+        <v>2.3630318631667482</v>
+      </c>
+      <c r="C706" t="str">
+        <v>513660.SH</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B707">
+        <v>1.9141470976157997</v>
+      </c>
+      <c r="C707" t="str">
+        <v>163417.SZ</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B708">
+        <v>2.8300795404451842</v>
+      </c>
+      <c r="C708" t="str">
+        <v>162605.SZ</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B709">
+        <v>3.3508934802056096</v>
+      </c>
+      <c r="C709" t="str">
+        <v>161005.SZ</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B710">
+        <v>0.98079729342530309</v>
+      </c>
+      <c r="C710" t="str">
+        <v>163402.SZ</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B711">
+        <v>2.0181670649083832</v>
+      </c>
+      <c r="C711" t="str">
+        <v>163406.SZ</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B712">
+        <v>2.1226703413221348</v>
+      </c>
+      <c r="C712" t="str">
+        <v>161903.SZ</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B713">
+        <v>3.7313195841862168</v>
+      </c>
+      <c r="C713" t="str">
+        <v>163415.SZ</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B714">
+        <v>3.3820335626766869</v>
+      </c>
+      <c r="C714" t="str">
+        <v>162703.SZ</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B715">
+        <v>1.2819916391099402</v>
+      </c>
+      <c r="C715" t="str">
+        <v>161725.SZ</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B716">
+        <v>3.3410173435800368</v>
+      </c>
+      <c r="C716" t="str">
+        <v>501057.SH</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B717">
+        <v>1.6153889860726431</v>
+      </c>
+      <c r="C717" t="str">
+        <v>161028.SZ</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B718">
+        <v>0</v>
+      </c>
+      <c r="C718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B719">
+        <v>0</v>
+      </c>
+      <c r="C719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B720">
+        <v>0</v>
+      </c>
+      <c r="C720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B721">
+        <v>0</v>
+      </c>
+      <c r="C721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B722">
+        <v>0</v>
+      </c>
+      <c r="C722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B723">
+        <v>0</v>
+      </c>
+      <c r="C723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B724">
+        <v>0</v>
+      </c>
+      <c r="C724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B725">
+        <v>0</v>
+      </c>
+      <c r="C725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B726">
+        <v>0</v>
+      </c>
+      <c r="C726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B727">
+        <v>0</v>
+      </c>
+      <c r="C727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B728">
+        <v>0</v>
+      </c>
+      <c r="C728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B729">
+        <v>0</v>
+      </c>
+      <c r="C729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B730">
+        <v>0</v>
+      </c>
+      <c r="C730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B731">
+        <v>0</v>
+      </c>
+      <c r="C731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B732">
+        <v>0</v>
+      </c>
+      <c r="C732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B733">
+        <v>0</v>
+      </c>
+      <c r="C733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B734">
+        <v>0</v>
+      </c>
+      <c r="C734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B735">
+        <v>0</v>
+      </c>
+      <c r="C735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B736">
+        <v>0</v>
+      </c>
+      <c r="C736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B737">
+        <v>0</v>
+      </c>
+      <c r="C737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B738">
+        <v>0</v>
+      </c>
+      <c r="C738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B739">
+        <v>0</v>
+      </c>
+      <c r="C739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B740">
+        <v>0</v>
+      </c>
+      <c r="C740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B741">
+        <v>0</v>
+      </c>
+      <c r="C741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B742">
+        <v>0</v>
+      </c>
+      <c r="C742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B743">
+        <v>0</v>
+      </c>
+      <c r="C743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B744">
+        <v>0</v>
+      </c>
+      <c r="C744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B745">
+        <v>0</v>
+      </c>
+      <c r="C745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B746">
+        <v>0</v>
+      </c>
+      <c r="C746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B747">
+        <v>0</v>
+      </c>
+      <c r="C747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B748">
+        <v>0</v>
+      </c>
+      <c r="C748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B749">
+        <v>0</v>
+      </c>
+      <c r="C749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B750">
+        <v>0</v>
+      </c>
+      <c r="C750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B751">
+        <v>0</v>
+      </c>
+      <c r="C751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B752">
+        <v>0</v>
+      </c>
+      <c r="C752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B753">
+        <v>0</v>
+      </c>
+      <c r="C753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B754">
+        <v>0</v>
+      </c>
+      <c r="C754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B755">
+        <v>0</v>
+      </c>
+      <c r="C755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B756">
+        <v>0</v>
+      </c>
+      <c r="C756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B757">
+        <v>0</v>
+      </c>
+      <c r="C757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B758">
+        <v>0</v>
+      </c>
+      <c r="C758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B759">
+        <v>0</v>
+      </c>
+      <c r="C759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B760">
+        <v>0</v>
+      </c>
+      <c r="C760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B761">
+        <v>0</v>
+      </c>
+      <c r="C761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B762">
+        <v>0</v>
+      </c>
+      <c r="C762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B763">
+        <v>0</v>
+      </c>
+      <c r="C763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B764">
+        <v>0</v>
+      </c>
+      <c r="C764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B765">
+        <v>0</v>
+      </c>
+      <c r="C765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B766">
+        <v>0</v>
+      </c>
+      <c r="C766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B767">
+        <v>0</v>
+      </c>
+      <c r="C767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B768">
+        <v>0</v>
+      </c>
+      <c r="C768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B769">
+        <v>0</v>
+      </c>
+      <c r="C769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B770">
+        <v>0</v>
+      </c>
+      <c r="C770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B771">
+        <v>0</v>
+      </c>
+      <c r="C771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B772">
+        <v>0</v>
+      </c>
+      <c r="C772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B773">
+        <v>0</v>
+      </c>
+      <c r="C773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B774">
+        <v>0</v>
+      </c>
+      <c r="C774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B775">
+        <v>0</v>
+      </c>
+      <c r="C775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B776">
+        <v>0</v>
+      </c>
+      <c r="C776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B777">
+        <v>0</v>
+      </c>
+      <c r="C777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B778">
+        <v>0</v>
+      </c>
+      <c r="C778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B779">
+        <v>0</v>
+      </c>
+      <c r="C779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B780">
+        <v>0</v>
+      </c>
+      <c r="C780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B781">
+        <v>0</v>
+      </c>
+      <c r="C781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B782">
+        <v>0</v>
+      </c>
+      <c r="C782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B783">
+        <v>0</v>
+      </c>
+      <c r="C783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" s="22">
+        <v>44517.614664537039</v>
+      </c>
+      <c r="B784">
+        <v>0</v>
+      </c>
+      <c r="C784">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/OpenAPI.Cms.TestTools/example.xlsx
+++ b/src/OpenAPI.Cms.TestTools/example.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Dans\ExcelPublisher_Public\src\OpenAPI.Cms.TestTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732E82C-5AD8-48CD-98BB-B6CD82E4C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D25EC9-1FDC-4730-A512-0FFE1AA18BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FBA689E-433E-47A2-BF8D-0E49C193B40C}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy" sheetId="1" r:id="rId1"/>
     <sheet name="publish_config" sheetId="2" r:id="rId2"/>
-    <sheet name="Fairs" sheetId="3" r:id="rId3"/>
+    <sheet name="HistoricalFairs" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="fair">strategy!$N$3:$O$100</definedName>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95651A8A-155D-45A0-966C-D3DF6E72C384}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1195,11 +1195,11 @@
       </c>
       <c r="C1" t="b">
         <f ca="1">AND(D1&gt;TIME(9,30,0),D1&lt;TIME(15,0,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f ca="1">NOW()-TODAY()</f>
-        <v>0.63388506944465917</v>
+        <v>0.59569629629550036</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="F3" s="18" t="b">
         <f ca="1">is_trading</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="12">
         <v>100</v>
@@ -1822,20 +1822,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1910EBD8-8D4B-408E-BE47-91E912664919}">
-  <dimension ref="A1:K784"/>
+  <dimension ref="A1:I784"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="9"/>
+    <col min="9" max="9" width="10" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" cm="1">
-        <f t="array" ref="A1:C784">_xll.P_LoadReport(1000, publish_config!B4,publish_config!H4,publish_config!I4)</f>
+        <f t="array" ref="A1:C784">_xll.__LoadReport(1000, publish_config!B4,publish_config!H4,publish_config!I4)</f>
         <v>44517.614746458334</v>
       </c>
       <c r="B1" s="24" t="str">
